--- a/Webapp/flask_app/static/data_files/data_australia_edu.xlsx
+++ b/Webapp/flask_app/static/data_files/data_australia_edu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flask\pythonFlaskProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\Documents\COMP90024\COMP90024-ClusterAndCloudComputing-Assignment2\Webapp\flask_app\static\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0029A5E7-7428-4C62-B8ED-4CB14F86C73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0A3CF-D924-4121-BCB8-CA25E8B092BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{63227020-CC7B-4DEC-A2BC-BB33A7496455}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63227020-CC7B-4DEC-A2BC-BB33A7496455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,16 +466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3620FD19-B5F8-4BCE-9B5D-5CC4C761D69C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -486,100 +488,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="C2">
+        <f>100-52.1</f>
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="C3">
+        <f>100-67.6</f>
+        <v>32.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C4">
+        <f>100-71.6</f>
+        <v>28.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>82.7</v>
+      </c>
+      <c r="C5">
+        <f>100-82.7</f>
+        <v>17.299999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>80.3</v>
+      </c>
+      <c r="C6">
+        <f>100-80.3</f>
+        <v>19.700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>84.3</v>
+      </c>
+      <c r="C7">
+        <f>100-84.3</f>
+        <v>15.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>85.4</v>
+      </c>
+      <c r="C8">
+        <f>100-85.4</f>
+        <v>14.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B9">
         <v>85.8</v>
       </c>
-      <c r="C2">
+      <c r="C9">
         <f>100-85.8</f>
         <v>14.200000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>85.4</v>
-      </c>
-      <c r="C3">
-        <f>100-85.4</f>
-        <v>14.599999999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>84.3</v>
-      </c>
-      <c r="C4">
-        <f>100-84.3</f>
-        <v>15.700000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>80.3</v>
-      </c>
-      <c r="C5">
-        <f>100-80.3</f>
-        <v>19.700000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>82.7</v>
-      </c>
-      <c r="C6">
-        <f>100-82.7</f>
-        <v>17.299999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="C7">
-        <f>100-71.6</f>
-        <v>28.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="C8">
-        <f>100-67.6</f>
-        <v>32.400000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>52.1</v>
-      </c>
-      <c r="C9">
-        <f>100-52.1</f>
-        <v>47.9</v>
       </c>
     </row>
   </sheetData>
